--- a/data/trans_dic/P16B09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,52%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>90,07; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>94,7; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>94,3; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>94,91; 99,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>90,8; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>94,99; 99,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>95,82; 99,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>93,28; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>77,13; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>91,24; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>96,39; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>96,1; 100</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -867,32 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,32 +920,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,01%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>91,75; 99,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>96,96; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>95,84; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>95,68; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>95,62; 99,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>93,46; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>95,74; 99,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>96,84; 99,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>94,59; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B09-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,07; 100,0</t>
+          <t>90,56; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>94,3; 100,0</t>
+          <t>93,47; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,91; 99,41</t>
+          <t>94,19; 99,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,8; 100,0</t>
+          <t>91,4; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,99; 99,54</t>
+          <t>94,79; 99,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,82; 99,51</t>
+          <t>96,24; 99,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,28; 100,0</t>
+          <t>91,64; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,13; 100,0</t>
+          <t>82,0; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,24; 100,0</t>
+          <t>90,18; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,75; 99,15</t>
+          <t>91,57; 99,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,68; 100,0</t>
+          <t>95,18; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,62; 99,51</t>
+          <t>95,82; 99,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,46; 100,0</t>
+          <t>92,17; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,74; 99,31</t>
+          <t>95,59; 99,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,84; 99,64</t>
+          <t>96,89; 99,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94,59; 100,0</t>
+          <t>95,12; 100,0</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para el reuma fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>66540</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>38603</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26671</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>131159</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>163806</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>90263</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>197700</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>202409</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>116934</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>61992; 68451</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>36556; 38603</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24976; 26671</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>124695; 133410</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>157283; 165986</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>84099; 92016</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>191341; 200568</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>197861; 204594</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108770; 118687</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19591</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25611</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17578</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26801</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31895</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36086</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46392</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57506</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53665</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16736; 20410</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23581; 25611</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15619; 17578</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24838; 26801</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29868; 31895</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>34000; 36086</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42573; 47211</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>55430; 57506</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>51571; 53665</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6431</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5249</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11321</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6526</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17752</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11775</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4465; 6431</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3346; 5249</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9388; 11321</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4802; 6526</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2681; 4205</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15652; 17752</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9764; 11775</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2681; 4205</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>92562</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69463</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44250</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>169281</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>202228</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>130554</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>261843</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>271691</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>174804</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>87256; 94476</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>67352; 69463</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>42411; 44250</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>163263; 171532</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>196829; 204411</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>121943; 132307</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>255048; 265014</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>266329; 273876</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>167948; 176557</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>